--- a/src/public/templates/template.xlsx
+++ b/src/public/templates/template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="166" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="166"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
@@ -24,7 +23,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -38,7 +37,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 64
+          <t>Longueur maximum : 64
 Peux être vide</t>
         </r>
       </text>
@@ -47,7 +46,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -61,7 +60,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 64
+          <t>Longueur maximum : 64
 Peux être vide</t>
         </r>
       </text>
@@ -70,7 +69,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -84,7 +83,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 24
+          <t>Longueur maximum : 24
 Peux être vide</t>
         </r>
       </text>
@@ -93,7 +92,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -107,7 +106,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 60
+          <t>Longueur maximum : 60
 Peux être vide</t>
         </r>
       </text>
@@ -116,7 +115,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -136,12 +135,12 @@
         </r>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Exemple :</t>
+            <u/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exemple :</t>
         </r>
         <r>
           <rPr>
@@ -153,13 +152,12 @@
         </r>
         <r>
           <rPr>
-            <i val="true"/>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2014-12-31 23:59:59
-</t>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>2014-12-31 23:59:59</t>
         </r>
       </text>
     </comment>
@@ -167,7 +165,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -187,12 +185,12 @@
         </r>
         <r>
           <rPr>
-            <u val="single"/>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Exemple :</t>
+            <u/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Exemple :</t>
         </r>
         <r>
           <rPr>
@@ -204,13 +202,12 @@
         </r>
         <r>
           <rPr>
-            <i val="true"/>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2014-12-31 23:59:59
-</t>
+            <i/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>2014-12-31 23:59:59</t>
         </r>
       </text>
     </comment>
@@ -218,7 +215,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -228,15 +225,24 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valeurs possibles :
+            <u/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 - Buyer
 - Seller
-Valeur obligatoire
-</t>
+Valeur obligatoire</t>
         </r>
       </text>
     </comment>
@@ -244,7 +250,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -258,9 +264,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 64
-Peux être vide
-</t>
+          <t>Longueur maximum : 64
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -268,7 +273,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -282,9 +287,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 16
-Peux être vide
-</t>
+          <t>Longueur maximum : 16
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -292,7 +296,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -306,9 +310,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 16
-Peux être vide
-</t>
+          <t>Longueur maximum : 16
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -316,7 +319,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -330,9 +333,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 128
-Peux être vide
-</t>
+          <t>Longueur maximum : 128
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -340,7 +342,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -354,9 +356,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 16
-Peux être vide
-</t>
+          <t>Longueur maximum : 16
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -364,7 +365,7 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
+            <b/>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
@@ -378,9 +379,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Longueur maximum : 64
-Peux être vide
-</t>
+          <t>Longueur maximum : 64
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -452,45 +452,34 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="81"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -504,7 +493,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -512,106 +501,384 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:S12" totalsRowShown="0">
+  <autoFilter ref="A1:S12"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="Nom"/>
+    <tableColumn id="2" name="Prénom"/>
+    <tableColumn id="3" name="Téléphone"/>
+    <tableColumn id="4" name="Email"/>
+    <tableColumn id="5" name="Dernière relance"/>
+    <tableColumn id="6" name="Prochaine relance"/>
+    <tableColumn id="7" name="Etat"/>
+    <tableColumn id="8" name="Prix (from)"/>
+    <tableColumn id="9" name="Prix (to)"/>
+    <tableColumn id="10" name="Loyer (from)"/>
+    <tableColumn id="11" name="Loyer (to)"/>
+    <tableColumn id="12" name="Surface (from)"/>
+    <tableColumn id="13" name="Surface (to)"/>
+    <tableColumn id="14" name="Société"/>
+    <tableColumn id="15" name="Mandat"/>
+    <tableColumn id="16" name="Adresse (numéro)"/>
+    <tableColumn id="17" name="Adresse (rue)"/>
+    <tableColumn id="18" name="Adresse (code postal)"/>
+    <tableColumn id="19" name="Adresse (ville)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.31632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.82142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2959183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -620,45 +887,89 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/public/templates/template.xlsx
+++ b/src/public/templates/template.xlsx
@@ -17,6 +17,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
+    <author>JULIEN AMAR</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -243,6 +244,156 @@
 - Buyer
 - Seller
 Valeur obligatoire</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
         </r>
       </text>
     </comment>
@@ -452,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -481,6 +632,32 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -833,7 +1010,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>

--- a/src/public/templates/template.xlsx
+++ b/src/public/templates/template.xlsx
@@ -535,12 +535,157 @@
         </r>
       </text>
     </comment>
+    <comment ref="T1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valeurs multiples
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valeurs séparées par des ";"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parmis les valeurs possibles :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- 
+- 
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valeurs multiples
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valeurs séparées par des ";"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Parmis les valeurs possibles :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- 75001
+- …
+- 75020
+- 77
+- …
+- 95
+- France
+- Province
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Chaine de caractères
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Longueur maximum : 4096
+Peux être vide0</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Nom</t>
   </si>
@@ -597,13 +742,22 @@
   </si>
   <si>
     <t>Adresse (ville)</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Activités</t>
+  </si>
+  <si>
+    <t>Secteurs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -632,6 +786,19 @@
       <sz val="10"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -695,9 +862,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:S12" totalsRowShown="0">
-  <autoFilter ref="A1:S12"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V12" totalsRowShown="0">
+  <autoFilter ref="A1:V12">
+    <filterColumn colId="19"/>
+    <filterColumn colId="20"/>
+    <filterColumn colId="21"/>
+  </autoFilter>
+  <tableColumns count="22">
     <tableColumn id="1" name="Nom"/>
     <tableColumn id="2" name="Prénom"/>
     <tableColumn id="3" name="Téléphone"/>
@@ -717,6 +888,9 @@
     <tableColumn id="17" name="Adresse (rue)"/>
     <tableColumn id="18" name="Adresse (code postal)"/>
     <tableColumn id="19" name="Adresse (ville)"/>
+    <tableColumn id="21" name="Activités"/>
+    <tableColumn id="22" name="Secteurs"/>
+    <tableColumn id="23" name="Commentaire"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="12.5"/>
@@ -1033,10 +1207,13 @@
     <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="1025" width="11.54296875"/>
+    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,8 +1271,17 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1116,7 +1302,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>

--- a/src/public/templates/template.xlsx
+++ b/src/public/templates/template.xlsx
@@ -397,7 +397,213 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Numérique
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeur entière
+Peux être vide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enumération
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :
+- Oui
+- Non</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enumération
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :
+- Oui
+- Non</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enumération
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :
+- Oui
+- Non</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enumération
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :
+- Oui
+- Non</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enumération
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :
+- Oui
+- Non</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enumération
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Valeurs possibles :
+- Oui
+- Non</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -489,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="AB1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -582,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1">
+    <comment ref="AC1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -655,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1">
+    <comment ref="AD1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -685,7 +891,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Nom</t>
   </si>
@@ -751,13 +957,37 @@
   </si>
   <si>
     <t>Secteurs</t>
+  </si>
+  <si>
+    <t>Surface Vente (to)</t>
+  </si>
+  <si>
+    <t>Surface Vente (from)</t>
+  </si>
+  <si>
+    <t>Extraction</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>License II</t>
+  </si>
+  <si>
+    <t>License III</t>
+  </si>
+  <si>
+    <t>License IV</t>
+  </si>
+  <si>
+    <t>Terrasse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -827,6 +1057,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -862,13 +1099,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:V12" totalsRowShown="0">
-  <autoFilter ref="A1:V12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:AD12" totalsRowShown="0">
+  <autoFilter ref="A1:AD12">
+    <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
+    <filterColumn colId="15"/>
+    <filterColumn colId="16"/>
+    <filterColumn colId="17"/>
+    <filterColumn colId="18"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
-    <filterColumn colId="21"/>
+    <filterColumn colId="27"/>
+    <filterColumn colId="28"/>
+    <filterColumn colId="29"/>
   </autoFilter>
-  <tableColumns count="22">
+  <tableColumns count="30">
     <tableColumn id="1" name="Nom"/>
     <tableColumn id="2" name="Prénom"/>
     <tableColumn id="3" name="Téléphone"/>
@@ -882,6 +1127,14 @@
     <tableColumn id="11" name="Loyer (to)"/>
     <tableColumn id="12" name="Surface (from)"/>
     <tableColumn id="13" name="Surface (to)"/>
+    <tableColumn id="24" name="Surface Vente (from)"/>
+    <tableColumn id="20" name="Surface Vente (to)"/>
+    <tableColumn id="30" name="Terrasse"/>
+    <tableColumn id="29" name="Extraction"/>
+    <tableColumn id="28" name="Appartement"/>
+    <tableColumn id="27" name="License II"/>
+    <tableColumn id="26" name="License III"/>
+    <tableColumn id="25" name="License IV"/>
     <tableColumn id="14" name="Société"/>
     <tableColumn id="15" name="Mandat"/>
     <tableColumn id="16" name="Adresse (numéro)"/>
@@ -1181,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1202,18 +1455,26 @@
     <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="1025" width="11.54296875"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="1033" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1254,34 +1515,58 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1301,8 +1586,16 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:30">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1322,6 +1615,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
